--- a/web/src/assets/files/schedule-template.xlsx
+++ b/web/src/assets/files/schedule-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danii\OneDrive\Desktop\хахатоны\РТУ МИРЭА и 1С\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B1E911-0288-4C68-BCF6-6B015E77D629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829434D1-4D3D-4318-8253-6B1FCC8B5CFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -824,7 +824,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -988,9 +988,6 @@
     <xf numFmtId="14" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1013,6 +1010,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1053,12 +1056,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1347,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K7" zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W92" sqref="W92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1376,15 +1373,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
       <c r="F1" s="27" t="s">
         <v>32</v>
       </c>
@@ -1409,10 +1406,10 @@
       <c r="U1" s="38"/>
       <c r="V1" s="47"/>
       <c r="W1" s="47"/>
-      <c r="X1" s="63"/>
+      <c r="X1" s="62"/>
     </row>
     <row r="2" spans="1:24" s="39" customFormat="1" ht="39" x14ac:dyDescent="0.35">
-      <c r="A2" s="69"/>
+      <c r="A2" s="70"/>
       <c r="B2" s="30" t="s">
         <v>2</v>
       </c>
@@ -1479,19 +1476,19 @@
       <c r="W2" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="X2" s="63"/>
+      <c r="X2" s="62"/>
     </row>
     <row r="3" spans="1:24" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="63" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="24" t="s">
@@ -1549,17 +1546,17 @@
       <c r="W3" s="51">
         <v>45537</v>
       </c>
-      <c r="X3" s="63"/>
+      <c r="X3" s="62"/>
     </row>
     <row r="4" spans="1:24" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="74"/>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="75"/>
+      <c r="B4" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="63" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="24" t="s">
@@ -1579,7 +1576,7 @@
       </c>
       <c r="J4" s="44"/>
       <c r="K4" s="51">
-        <v>45537</v>
+        <v>45544</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>61</v>
@@ -1597,7 +1594,7 @@
         <v>119</v>
       </c>
       <c r="Q4" s="51">
-        <v>45537</v>
+        <v>45544</v>
       </c>
       <c r="R4" s="5" t="s">
         <v>61</v>
@@ -1615,21 +1612,21 @@
         <v>119</v>
       </c>
       <c r="W4" s="51">
-        <v>45537</v>
-      </c>
-      <c r="X4" s="63"/>
+        <v>45544</v>
+      </c>
+      <c r="X4" s="62"/>
     </row>
     <row r="5" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A5" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="65" t="s">
+      <c r="A5" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="63" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="24" t="s">
@@ -1687,19 +1684,19 @@
       <c r="W5" s="51">
         <v>45537</v>
       </c>
-      <c r="X5" s="63"/>
+      <c r="X5" s="62"/>
     </row>
     <row r="6" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A6" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="65" t="s">
+      <c r="A6" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="63" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="24" t="s">
@@ -1719,7 +1716,7 @@
       </c>
       <c r="J6" s="44"/>
       <c r="K6" s="51">
-        <v>45537</v>
+        <v>45544</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>64</v>
@@ -1737,7 +1734,7 @@
         <v>119</v>
       </c>
       <c r="Q6" s="51">
-        <v>45537</v>
+        <v>45544</v>
       </c>
       <c r="R6" s="5" t="s">
         <v>64</v>
@@ -1755,21 +1752,21 @@
         <v>119</v>
       </c>
       <c r="W6" s="51">
-        <v>45537</v>
-      </c>
-      <c r="X6" s="63"/>
+        <v>45544</v>
+      </c>
+      <c r="X6" s="62"/>
     </row>
     <row r="7" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="65" t="s">
+      <c r="A7" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="24" t="s">
@@ -1823,19 +1820,19 @@
       <c r="W7" s="51">
         <v>45537</v>
       </c>
-      <c r="X7" s="63"/>
+      <c r="X7" s="62"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="65" t="s">
+      <c r="A8" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -1855,7 +1852,7 @@
       </c>
       <c r="J8" s="44"/>
       <c r="K8" s="51">
-        <v>45537</v>
+        <v>45544</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>35</v>
@@ -1871,7 +1868,7 @@
       </c>
       <c r="P8" s="44"/>
       <c r="Q8" s="51">
-        <v>45537</v>
+        <v>45544</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>75</v>
@@ -1887,21 +1884,21 @@
       </c>
       <c r="V8" s="44"/>
       <c r="W8" s="51">
-        <v>45537</v>
-      </c>
-      <c r="X8" s="63"/>
+        <v>45544</v>
+      </c>
+      <c r="X8" s="62"/>
     </row>
     <row r="9" spans="1:24" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="65" t="s">
+      <c r="A9" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="63" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="24" t="s">
@@ -1955,19 +1952,19 @@
       <c r="W9" s="51">
         <v>45537</v>
       </c>
-      <c r="X9" s="63"/>
+      <c r="X9" s="62"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="65" t="s">
+      <c r="A10" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="63" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="24" t="s">
@@ -1987,7 +1984,7 @@
       </c>
       <c r="J10" s="44"/>
       <c r="K10" s="51">
-        <v>45537</v>
+        <v>45544</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>35</v>
@@ -2003,7 +2000,7 @@
       </c>
       <c r="P10" s="44"/>
       <c r="Q10" s="51">
-        <v>45537</v>
+        <v>45544</v>
       </c>
       <c r="R10" s="5" t="s">
         <v>75</v>
@@ -2019,21 +2016,21 @@
       </c>
       <c r="V10" s="44"/>
       <c r="W10" s="51">
-        <v>45537</v>
-      </c>
-      <c r="X10" s="63"/>
+        <v>45544</v>
+      </c>
+      <c r="X10" s="62"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="65" t="s">
+      <c r="A11" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="24" t="s">
@@ -2087,19 +2084,19 @@
       <c r="W11" s="51">
         <v>45537</v>
       </c>
-      <c r="X11" s="63"/>
+      <c r="X11" s="62"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A12" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="65" t="s">
+      <c r="A12" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="64" t="s">
+      <c r="D12" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E12" s="24" t="s">
@@ -2119,7 +2116,7 @@
       </c>
       <c r="J12" s="44"/>
       <c r="K12" s="51">
-        <v>45537</v>
+        <v>45544</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>35</v>
@@ -2135,7 +2132,7 @@
       </c>
       <c r="P12" s="44"/>
       <c r="Q12" s="51">
-        <v>45537</v>
+        <v>45544</v>
       </c>
       <c r="R12" s="5" t="s">
         <v>35</v>
@@ -2151,21 +2148,21 @@
       </c>
       <c r="V12" s="44"/>
       <c r="W12" s="51">
-        <v>45537</v>
-      </c>
-      <c r="X12" s="63"/>
+        <v>45544</v>
+      </c>
+      <c r="X12" s="62"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A13" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="65" t="s">
+      <c r="A13" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="63" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="24" t="s">
@@ -2219,19 +2216,19 @@
       <c r="W13" s="51">
         <v>45537</v>
       </c>
-      <c r="X13" s="63"/>
+      <c r="X13" s="62"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A14" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="65" t="s">
+      <c r="A14" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="63" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="24" t="s">
@@ -2251,7 +2248,7 @@
       </c>
       <c r="J14" s="44"/>
       <c r="K14" s="51">
-        <v>45537</v>
+        <v>45544</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>35</v>
@@ -2267,7 +2264,7 @@
       </c>
       <c r="P14" s="44"/>
       <c r="Q14" s="51">
-        <v>45537</v>
+        <v>45544</v>
       </c>
       <c r="R14" s="5" t="s">
         <v>35</v>
@@ -2283,21 +2280,21 @@
       </c>
       <c r="V14" s="44"/>
       <c r="W14" s="51">
-        <v>45537</v>
-      </c>
-      <c r="X14" s="63"/>
+        <v>45544</v>
+      </c>
+      <c r="X14" s="62"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A15" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="65" t="s">
+      <c r="A15" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="63" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="24" t="s">
@@ -2351,19 +2348,19 @@
       <c r="W15" s="51">
         <v>45537</v>
       </c>
-      <c r="X15" s="63"/>
+      <c r="X15" s="62"/>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="65" t="s">
+      <c r="A16" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="63" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="24" t="s">
@@ -2382,10 +2379,10 @@
         <v>35</v>
       </c>
       <c r="J16" s="44"/>
-      <c r="K16" s="57">
-        <v>45537</v>
-      </c>
-      <c r="L16" s="62" t="s">
+      <c r="K16" s="51">
+        <v>45544</v>
+      </c>
+      <c r="L16" s="61" t="s">
         <v>35</v>
       </c>
       <c r="M16" s="3" t="s">
@@ -2398,10 +2395,10 @@
         <v>35</v>
       </c>
       <c r="P16" s="44"/>
-      <c r="Q16" s="57">
-        <v>45537</v>
-      </c>
-      <c r="R16" s="62" t="s">
+      <c r="Q16" s="51">
+        <v>45544</v>
+      </c>
+      <c r="R16" s="61" t="s">
         <v>35</v>
       </c>
       <c r="S16" s="5" t="s">
@@ -2414,22 +2411,22 @@
         <v>35</v>
       </c>
       <c r="V16" s="44"/>
-      <c r="W16" s="57">
-        <v>45537</v>
-      </c>
-      <c r="X16" s="63"/>
+      <c r="W16" s="51">
+        <v>45544</v>
+      </c>
+      <c r="X16" s="62"/>
     </row>
     <row r="17" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="67" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="25" t="s">
@@ -2483,19 +2480,19 @@
       <c r="W17" s="56">
         <v>45538</v>
       </c>
-      <c r="X17" s="63"/>
+      <c r="X17" s="62"/>
     </row>
     <row r="18" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A18" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="65" t="s">
+      <c r="A18" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="63" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="24" t="s">
@@ -2515,7 +2512,7 @@
       </c>
       <c r="J18" s="44"/>
       <c r="K18" s="51">
-        <v>45538</v>
+        <v>45545</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>86</v>
@@ -2531,7 +2528,7 @@
       </c>
       <c r="P18" s="44"/>
       <c r="Q18" s="51">
-        <v>45538</v>
+        <v>45545</v>
       </c>
       <c r="R18" s="5" t="s">
         <v>64</v>
@@ -2547,21 +2544,21 @@
       </c>
       <c r="V18" s="44"/>
       <c r="W18" s="51">
-        <v>45538</v>
-      </c>
-      <c r="X18" s="63"/>
+        <v>45545</v>
+      </c>
+      <c r="X18" s="62"/>
     </row>
     <row r="19" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A19" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="65" t="s">
+      <c r="A19" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="63" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="24" t="s">
@@ -2615,19 +2612,19 @@
       <c r="W19" s="51">
         <v>45538</v>
       </c>
-      <c r="X19" s="63"/>
+      <c r="X19" s="62"/>
     </row>
     <row r="20" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A20" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="65" t="s">
+      <c r="A20" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="64" t="s">
+      <c r="D20" s="63" t="s">
         <v>14</v>
       </c>
       <c r="E20" s="24" t="s">
@@ -2647,7 +2644,7 @@
       </c>
       <c r="J20" s="44"/>
       <c r="K20" s="51">
-        <v>45538</v>
+        <v>45545</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>61</v>
@@ -2663,7 +2660,7 @@
       </c>
       <c r="P20" s="44"/>
       <c r="Q20" s="51">
-        <v>45538</v>
+        <v>45545</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>86</v>
@@ -2679,27 +2676,27 @@
       </c>
       <c r="V20" s="44"/>
       <c r="W20" s="51">
-        <v>45538</v>
-      </c>
-      <c r="X20" s="63"/>
+        <v>45545</v>
+      </c>
+      <c r="X20" s="62"/>
     </row>
     <row r="21" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A21" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="65" t="s">
+      <c r="A21" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="60" t="s">
         <v>113</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -2751,19 +2748,19 @@
       <c r="W21" s="51">
         <v>45538</v>
       </c>
-      <c r="X21" s="63"/>
+      <c r="X21" s="62"/>
     </row>
     <row r="22" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A22" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="65" t="s">
+      <c r="A22" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="64" t="s">
+      <c r="C22" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="64" t="s">
+      <c r="D22" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E22" s="24" t="s">
@@ -2783,7 +2780,7 @@
       </c>
       <c r="J22" s="44"/>
       <c r="K22" s="51">
-        <v>45538</v>
+        <v>45545</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>72</v>
@@ -2801,7 +2798,7 @@
         <v>119</v>
       </c>
       <c r="Q22" s="51">
-        <v>45538</v>
+        <v>45545</v>
       </c>
       <c r="R22" s="5" t="s">
         <v>72</v>
@@ -2819,21 +2816,21 @@
         <v>119</v>
       </c>
       <c r="W22" s="51">
-        <v>45538</v>
-      </c>
-      <c r="X22" s="63"/>
+        <v>45545</v>
+      </c>
+      <c r="X22" s="62"/>
     </row>
     <row r="23" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A23" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="65" t="s">
+      <c r="A23" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="63" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="24" t="s">
@@ -2887,19 +2884,19 @@
       <c r="W23" s="51">
         <v>45538</v>
       </c>
-      <c r="X23" s="63"/>
+      <c r="X23" s="62"/>
     </row>
     <row r="24" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A24" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="65" t="s">
+      <c r="A24" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="64" t="s">
+      <c r="D24" s="63" t="s">
         <v>18</v>
       </c>
       <c r="E24" s="24" t="s">
@@ -2919,7 +2916,7 @@
       </c>
       <c r="J24" s="44"/>
       <c r="K24" s="51">
-        <v>45538</v>
+        <v>45545</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>77</v>
@@ -2935,7 +2932,7 @@
       </c>
       <c r="P24" s="44"/>
       <c r="Q24" s="51">
-        <v>45538</v>
+        <v>45545</v>
       </c>
       <c r="R24" s="5" t="s">
         <v>35</v>
@@ -2951,21 +2948,21 @@
       </c>
       <c r="V24" s="44"/>
       <c r="W24" s="51">
-        <v>45538</v>
-      </c>
-      <c r="X24" s="63"/>
+        <v>45545</v>
+      </c>
+      <c r="X24" s="62"/>
     </row>
     <row r="25" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A25" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="65" t="s">
+      <c r="A25" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="64" t="s">
+      <c r="D25" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="24" t="s">
@@ -3019,19 +3016,19 @@
       <c r="W25" s="51">
         <v>45538</v>
       </c>
-      <c r="X25" s="63"/>
+      <c r="X25" s="62"/>
     </row>
     <row r="26" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A26" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="24" t="s">
@@ -3051,7 +3048,7 @@
       </c>
       <c r="J26" s="44"/>
       <c r="K26" s="51">
-        <v>45538</v>
+        <v>45545</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>64</v>
@@ -3067,7 +3064,7 @@
       </c>
       <c r="P26" s="44"/>
       <c r="Q26" s="51">
-        <v>45538</v>
+        <v>45545</v>
       </c>
       <c r="R26" s="5" t="s">
         <v>35</v>
@@ -3081,21 +3078,21 @@
       </c>
       <c r="V26" s="44"/>
       <c r="W26" s="51">
-        <v>45538</v>
-      </c>
-      <c r="X26" s="63"/>
+        <v>45545</v>
+      </c>
+      <c r="X26" s="62"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A27" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="65" t="s">
+      <c r="A27" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="63" t="s">
         <v>22</v>
       </c>
       <c r="E27" s="24" t="s">
@@ -3149,19 +3146,19 @@
       <c r="W27" s="51">
         <v>45538</v>
       </c>
-      <c r="X27" s="63"/>
+      <c r="X27" s="62"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A28" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="65" t="s">
+      <c r="A28" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="63" t="s">
         <v>22</v>
       </c>
       <c r="E28" s="24" t="s">
@@ -3181,7 +3178,7 @@
       </c>
       <c r="J28" s="44"/>
       <c r="K28" s="51">
-        <v>45538</v>
+        <v>45545</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>35</v>
@@ -3197,7 +3194,7 @@
       </c>
       <c r="P28" s="44"/>
       <c r="Q28" s="51">
-        <v>45538</v>
+        <v>45545</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>35</v>
@@ -3213,21 +3210,21 @@
       </c>
       <c r="V28" s="44"/>
       <c r="W28" s="51">
-        <v>45538</v>
-      </c>
-      <c r="X28" s="63"/>
+        <v>45545</v>
+      </c>
+      <c r="X28" s="62"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A29" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="65" t="s">
+      <c r="A29" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="63" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="24" t="s">
@@ -3281,19 +3278,19 @@
       <c r="W29" s="51">
         <v>45538</v>
       </c>
-      <c r="X29" s="63"/>
+      <c r="X29" s="62"/>
     </row>
     <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="65" t="s">
+      <c r="A30" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="64" t="s">
+      <c r="D30" s="63" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="24" t="s">
@@ -3312,8 +3309,8 @@
         <v>35</v>
       </c>
       <c r="J30" s="44"/>
-      <c r="K30" s="57">
-        <v>45538</v>
+      <c r="K30" s="51">
+        <v>45545</v>
       </c>
       <c r="L30" s="3" t="s">
         <v>35</v>
@@ -3328,8 +3325,8 @@
         <v>35</v>
       </c>
       <c r="P30" s="44"/>
-      <c r="Q30" s="57">
-        <v>45538</v>
+      <c r="Q30" s="51">
+        <v>45545</v>
       </c>
       <c r="R30" s="5" t="s">
         <v>35</v>
@@ -3344,22 +3341,22 @@
         <v>35</v>
       </c>
       <c r="V30" s="44"/>
-      <c r="W30" s="57">
-        <v>45538</v>
-      </c>
-      <c r="X30" s="63"/>
+      <c r="W30" s="51">
+        <v>45545</v>
+      </c>
+      <c r="X30" s="62"/>
     </row>
     <row r="31" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="67" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="25" t="s">
@@ -3413,19 +3410,19 @@
       <c r="W31" s="56">
         <v>45539</v>
       </c>
-      <c r="X31" s="63"/>
+      <c r="X31" s="62"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A32" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="65" t="s">
+      <c r="A32" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="63" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="24" t="s">
@@ -3445,7 +3442,7 @@
       </c>
       <c r="J32" s="44"/>
       <c r="K32" s="51">
-        <v>45539</v>
+        <v>45546</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>35</v>
@@ -3461,7 +3458,7 @@
       </c>
       <c r="P32" s="44"/>
       <c r="Q32" s="51">
-        <v>45539</v>
+        <v>45546</v>
       </c>
       <c r="R32" s="5" t="s">
         <v>35</v>
@@ -3477,21 +3474,21 @@
       </c>
       <c r="V32" s="44"/>
       <c r="W32" s="51">
-        <v>45539</v>
-      </c>
-      <c r="X32" s="63"/>
+        <v>45546</v>
+      </c>
+      <c r="X32" s="62"/>
     </row>
     <row r="33" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A33" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="65" t="s">
+      <c r="A33" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="64" t="s">
+      <c r="C33" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="63" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="24" t="s">
@@ -3549,19 +3546,19 @@
       <c r="W33" s="51">
         <v>45539</v>
       </c>
-      <c r="X33" s="63"/>
+      <c r="X33" s="62"/>
     </row>
     <row r="34" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A34" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="65" t="s">
+      <c r="A34" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="64" t="s">
+      <c r="D34" s="63" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="24" t="s">
@@ -3581,7 +3578,7 @@
       </c>
       <c r="J34" s="44"/>
       <c r="K34" s="51">
-        <v>45539</v>
+        <v>45546</v>
       </c>
       <c r="L34" s="3" t="s">
         <v>42</v>
@@ -3599,7 +3596,7 @@
         <v>119</v>
       </c>
       <c r="Q34" s="51">
-        <v>45539</v>
+        <v>45546</v>
       </c>
       <c r="R34" s="5" t="s">
         <v>42</v>
@@ -3617,21 +3614,21 @@
         <v>119</v>
       </c>
       <c r="W34" s="51">
-        <v>45539</v>
-      </c>
-      <c r="X34" s="63"/>
+        <v>45546</v>
+      </c>
+      <c r="X34" s="62"/>
     </row>
     <row r="35" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A35" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="65" t="s">
+      <c r="A35" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="64" t="s">
+      <c r="C35" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="64" t="s">
+      <c r="D35" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E35" s="24" t="s">
@@ -3685,19 +3682,19 @@
       <c r="W35" s="51">
         <v>45539</v>
       </c>
-      <c r="X35" s="63"/>
+      <c r="X35" s="62"/>
     </row>
     <row r="36" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A36" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="65" t="s">
+      <c r="A36" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="64" t="s">
+      <c r="D36" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="24" t="s">
@@ -3717,7 +3714,7 @@
       </c>
       <c r="J36" s="44"/>
       <c r="K36" s="51">
-        <v>45539</v>
+        <v>45546</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>42</v>
@@ -3733,7 +3730,7 @@
       </c>
       <c r="P36" s="44"/>
       <c r="Q36" s="51">
-        <v>45539</v>
+        <v>45546</v>
       </c>
       <c r="R36" s="5" t="s">
         <v>36</v>
@@ -3749,21 +3746,21 @@
       </c>
       <c r="V36" s="44"/>
       <c r="W36" s="51">
-        <v>45539</v>
-      </c>
-      <c r="X36" s="63"/>
+        <v>45546</v>
+      </c>
+      <c r="X36" s="62"/>
     </row>
     <row r="37" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A37" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="65" t="s">
+      <c r="A37" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="64" t="s">
+      <c r="D37" s="63" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="24" t="s">
@@ -3817,19 +3814,19 @@
       <c r="W37" s="51">
         <v>45539</v>
       </c>
-      <c r="X37" s="63"/>
+      <c r="X37" s="62"/>
     </row>
     <row r="38" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A38" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="65" t="s">
+      <c r="A38" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="64" t="s">
+      <c r="D38" s="63" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="24" t="s">
@@ -3849,7 +3846,7 @@
       </c>
       <c r="J38" s="44"/>
       <c r="K38" s="51">
-        <v>45539</v>
+        <v>45546</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>36</v>
@@ -3865,7 +3862,7 @@
       </c>
       <c r="P38" s="44"/>
       <c r="Q38" s="51">
-        <v>45539</v>
+        <v>45546</v>
       </c>
       <c r="R38" s="5" t="s">
         <v>42</v>
@@ -3881,21 +3878,21 @@
       </c>
       <c r="V38" s="44"/>
       <c r="W38" s="51">
-        <v>45539</v>
-      </c>
-      <c r="X38" s="63"/>
+        <v>45546</v>
+      </c>
+      <c r="X38" s="62"/>
     </row>
     <row r="39" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A39" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="65" t="s">
+      <c r="A39" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="64" t="s">
+      <c r="D39" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E39" s="24" t="s">
@@ -3953,19 +3950,19 @@
       <c r="W39" s="51">
         <v>45539</v>
       </c>
-      <c r="X39" s="63"/>
+      <c r="X39" s="62"/>
     </row>
     <row r="40" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A40" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="65" t="s">
+      <c r="A40" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="64" t="s">
+      <c r="D40" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E40" s="24" t="s">
@@ -3985,7 +3982,7 @@
       </c>
       <c r="J40" s="44"/>
       <c r="K40" s="51">
-        <v>45539</v>
+        <v>45546</v>
       </c>
       <c r="L40" s="3" t="s">
         <v>35</v>
@@ -4001,7 +3998,7 @@
       </c>
       <c r="P40" s="44"/>
       <c r="Q40" s="51">
-        <v>45539</v>
+        <v>45546</v>
       </c>
       <c r="R40" s="5" t="s">
         <v>35</v>
@@ -4017,21 +4014,21 @@
       </c>
       <c r="V40" s="44"/>
       <c r="W40" s="51">
-        <v>45539</v>
-      </c>
-      <c r="X40" s="63"/>
+        <v>45546</v>
+      </c>
+      <c r="X40" s="62"/>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A41" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="65" t="s">
+      <c r="A41" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="64" t="s">
+      <c r="D41" s="63" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="24" t="s">
@@ -4085,19 +4082,19 @@
       <c r="W41" s="51">
         <v>45539</v>
       </c>
-      <c r="X41" s="63"/>
+      <c r="X41" s="62"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A42" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="65" t="s">
+      <c r="A42" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="64" t="s">
+      <c r="D42" s="63" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="24" t="s">
@@ -4117,7 +4114,7 @@
       </c>
       <c r="J42" s="44"/>
       <c r="K42" s="51">
-        <v>45539</v>
+        <v>45546</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>35</v>
@@ -4133,7 +4130,7 @@
       </c>
       <c r="P42" s="44"/>
       <c r="Q42" s="51">
-        <v>45539</v>
+        <v>45546</v>
       </c>
       <c r="R42" s="5" t="s">
         <v>35</v>
@@ -4149,21 +4146,21 @@
       </c>
       <c r="V42" s="44"/>
       <c r="W42" s="51">
-        <v>45539</v>
-      </c>
-      <c r="X42" s="63"/>
+        <v>45546</v>
+      </c>
+      <c r="X42" s="62"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A43" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="65" t="s">
+      <c r="A43" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="64" t="s">
+      <c r="C43" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="64" t="s">
+      <c r="D43" s="63" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="24" t="s">
@@ -4217,25 +4214,25 @@
       <c r="W43" s="51">
         <v>45539</v>
       </c>
-      <c r="X43" s="63"/>
+      <c r="X43" s="62"/>
     </row>
     <row r="44" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B44" s="65" t="s">
+      <c r="A44" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="64" t="s">
+      <c r="C44" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="64" t="s">
+      <c r="D44" s="63" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="62" t="s">
+      <c r="F44" s="61" t="s">
         <v>35</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -4248,10 +4245,10 @@
         <v>35</v>
       </c>
       <c r="J44" s="44"/>
-      <c r="K44" s="57">
-        <v>45539</v>
-      </c>
-      <c r="L44" s="62" t="s">
+      <c r="K44" s="51">
+        <v>45546</v>
+      </c>
+      <c r="L44" s="61" t="s">
         <v>35</v>
       </c>
       <c r="M44" s="3" t="s">
@@ -4264,10 +4261,10 @@
         <v>35</v>
       </c>
       <c r="P44" s="44"/>
-      <c r="Q44" s="57">
-        <v>45539</v>
-      </c>
-      <c r="R44" s="62" t="s">
+      <c r="Q44" s="51">
+        <v>45546</v>
+      </c>
+      <c r="R44" s="61" t="s">
         <v>35</v>
       </c>
       <c r="S44" s="5" t="s">
@@ -4280,22 +4277,22 @@
         <v>35</v>
       </c>
       <c r="V44" s="44"/>
-      <c r="W44" s="57">
-        <v>45539</v>
-      </c>
-      <c r="X44" s="63"/>
+      <c r="W44" s="51">
+        <v>45546</v>
+      </c>
+      <c r="X44" s="62"/>
     </row>
     <row r="45" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A45" s="76" t="s">
+      <c r="A45" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="67" t="s">
+      <c r="B45" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="66" t="s">
+      <c r="D45" s="67" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="25" t="s">
@@ -4353,19 +4350,19 @@
       <c r="W45" s="56">
         <v>45540</v>
       </c>
-      <c r="X45" s="63"/>
+      <c r="X45" s="62"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A46" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B46" s="65" t="s">
+      <c r="A46" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="64" t="s">
+      <c r="D46" s="63" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="24" t="s">
@@ -4385,7 +4382,7 @@
       </c>
       <c r="J46" s="44"/>
       <c r="K46" s="51">
-        <v>45540</v>
+        <v>45547</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>35</v>
@@ -4401,7 +4398,7 @@
       </c>
       <c r="P46" s="44"/>
       <c r="Q46" s="51">
-        <v>45540</v>
+        <v>45547</v>
       </c>
       <c r="R46" s="5" t="s">
         <v>35</v>
@@ -4417,21 +4414,21 @@
       </c>
       <c r="V46" s="44"/>
       <c r="W46" s="51">
-        <v>45540</v>
-      </c>
-      <c r="X46" s="63"/>
+        <v>45547</v>
+      </c>
+      <c r="X46" s="62"/>
     </row>
     <row r="47" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A47" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="65" t="s">
+      <c r="A47" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D47" s="64" t="s">
+      <c r="D47" s="63" t="s">
         <v>14</v>
       </c>
       <c r="E47" s="24" t="s">
@@ -4489,19 +4486,19 @@
       <c r="W47" s="51">
         <v>45540</v>
       </c>
-      <c r="X47" s="63"/>
+      <c r="X47" s="62"/>
     </row>
     <row r="48" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A48" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B48" s="65" t="s">
+      <c r="A48" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="64" t="s">
+      <c r="D48" s="63" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="24" t="s">
@@ -4521,7 +4518,7 @@
       </c>
       <c r="J48" s="44"/>
       <c r="K48" s="51">
-        <v>45540</v>
+        <v>45547</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>98</v>
@@ -4539,7 +4536,7 @@
         <v>119</v>
       </c>
       <c r="Q48" s="51">
-        <v>45540</v>
+        <v>45547</v>
       </c>
       <c r="R48" s="5" t="s">
         <v>98</v>
@@ -4557,21 +4554,21 @@
         <v>119</v>
       </c>
       <c r="W48" s="51">
-        <v>45540</v>
-      </c>
-      <c r="X48" s="63"/>
+        <v>45547</v>
+      </c>
+      <c r="X48" s="62"/>
     </row>
     <row r="49" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A49" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B49" s="65" t="s">
+      <c r="A49" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D49" s="64" t="s">
+      <c r="D49" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="24" t="s">
@@ -4625,19 +4622,19 @@
       <c r="W49" s="51">
         <v>45540</v>
       </c>
-      <c r="X49" s="63"/>
+      <c r="X49" s="62"/>
     </row>
     <row r="50" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A50" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B50" s="65" t="s">
+      <c r="A50" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="64" t="s">
+      <c r="C50" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="64" t="s">
+      <c r="D50" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="24" t="s">
@@ -4657,7 +4654,7 @@
       </c>
       <c r="J50" s="44"/>
       <c r="K50" s="51">
-        <v>45540</v>
+        <v>45547</v>
       </c>
       <c r="L50" s="3" t="s">
         <v>75</v>
@@ -4673,7 +4670,7 @@
       </c>
       <c r="P50" s="44"/>
       <c r="Q50" s="51">
-        <v>45540</v>
+        <v>45547</v>
       </c>
       <c r="R50" s="5" t="s">
         <v>61</v>
@@ -4689,21 +4686,21 @@
       </c>
       <c r="V50" s="44"/>
       <c r="W50" s="51">
-        <v>45540</v>
-      </c>
-      <c r="X50" s="63"/>
+        <v>45547</v>
+      </c>
+      <c r="X50" s="62"/>
     </row>
     <row r="51" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A51" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" s="65" t="s">
+      <c r="A51" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="64" t="s">
+      <c r="D51" s="63" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="24" t="s">
@@ -4757,19 +4754,19 @@
       <c r="W51" s="51">
         <v>45540</v>
       </c>
-      <c r="X51" s="63"/>
+      <c r="X51" s="62"/>
     </row>
     <row r="52" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A52" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="65" t="s">
+      <c r="A52" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C52" s="64" t="s">
+      <c r="C52" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="64" t="s">
+      <c r="D52" s="63" t="s">
         <v>18</v>
       </c>
       <c r="E52" s="24" t="s">
@@ -4789,7 +4786,7 @@
       </c>
       <c r="J52" s="44"/>
       <c r="K52" s="51">
-        <v>45540</v>
+        <v>45547</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>98</v>
@@ -4805,7 +4802,7 @@
       </c>
       <c r="P52" s="44"/>
       <c r="Q52" s="51">
-        <v>45540</v>
+        <v>45547</v>
       </c>
       <c r="R52" s="5" t="s">
         <v>77</v>
@@ -4821,21 +4818,21 @@
       </c>
       <c r="V52" s="44"/>
       <c r="W52" s="51">
-        <v>45540</v>
-      </c>
-      <c r="X52" s="63"/>
+        <v>45547</v>
+      </c>
+      <c r="X52" s="62"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A53" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" s="65" t="s">
+      <c r="A53" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="64" t="s">
+      <c r="C53" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="64" t="s">
+      <c r="D53" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E53" s="24" t="s">
@@ -4889,19 +4886,19 @@
       <c r="W53" s="51">
         <v>45540</v>
       </c>
-      <c r="X53" s="63"/>
+      <c r="X53" s="62"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A54" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" s="65" t="s">
+      <c r="A54" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C54" s="64" t="s">
+      <c r="C54" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="64" t="s">
+      <c r="D54" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E54" s="24" t="s">
@@ -4921,7 +4918,7 @@
       </c>
       <c r="J54" s="44"/>
       <c r="K54" s="51">
-        <v>45540</v>
+        <v>45547</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>35</v>
@@ -4937,7 +4934,7 @@
       </c>
       <c r="P54" s="44"/>
       <c r="Q54" s="51">
-        <v>45540</v>
+        <v>45547</v>
       </c>
       <c r="R54" s="5" t="s">
         <v>35</v>
@@ -4953,21 +4950,21 @@
       </c>
       <c r="V54" s="44"/>
       <c r="W54" s="51">
-        <v>45540</v>
-      </c>
-      <c r="X54" s="63"/>
+        <v>45547</v>
+      </c>
+      <c r="X54" s="62"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A55" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="65" t="s">
+      <c r="A55" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="C55" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D55" s="64" t="s">
+      <c r="D55" s="63" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="24" t="s">
@@ -5021,19 +5018,19 @@
       <c r="W55" s="51">
         <v>45540</v>
       </c>
-      <c r="X55" s="63"/>
+      <c r="X55" s="62"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A56" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" s="65" t="s">
+      <c r="A56" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="64" t="s">
+      <c r="D56" s="63" t="s">
         <v>22</v>
       </c>
       <c r="E56" s="24" t="s">
@@ -5053,7 +5050,7 @@
       </c>
       <c r="J56" s="44"/>
       <c r="K56" s="51">
-        <v>45540</v>
+        <v>45547</v>
       </c>
       <c r="L56" s="3" t="s">
         <v>35</v>
@@ -5069,7 +5066,7 @@
       </c>
       <c r="P56" s="44"/>
       <c r="Q56" s="51">
-        <v>45540</v>
+        <v>45547</v>
       </c>
       <c r="R56" s="5" t="s">
         <v>35</v>
@@ -5085,21 +5082,21 @@
       </c>
       <c r="V56" s="44"/>
       <c r="W56" s="51">
-        <v>45540</v>
-      </c>
-      <c r="X56" s="63"/>
+        <v>45547</v>
+      </c>
+      <c r="X56" s="62"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A57" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B57" s="65" t="s">
+      <c r="A57" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="64" t="s">
+      <c r="C57" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="64" t="s">
+      <c r="D57" s="63" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="24" t="s">
@@ -5153,19 +5150,19 @@
       <c r="W57" s="51">
         <v>45540</v>
       </c>
-      <c r="X57" s="63"/>
+      <c r="X57" s="62"/>
     </row>
     <row r="58" spans="1:24" ht="29" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="B58" s="65" t="s">
+      <c r="A58" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="64" t="s">
+      <c r="C58" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="64" t="s">
+      <c r="D58" s="63" t="s">
         <v>24</v>
       </c>
       <c r="E58" s="24" t="s">
@@ -5178,14 +5175,14 @@
       <c r="H58" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="I58" s="60" t="s">
+      <c r="I58" s="59" t="s">
         <v>35</v>
       </c>
       <c r="J58" s="44"/>
-      <c r="K58" s="57">
-        <v>45540</v>
-      </c>
-      <c r="L58" s="62" t="s">
+      <c r="K58" s="51">
+        <v>45547</v>
+      </c>
+      <c r="L58" s="61" t="s">
         <v>35</v>
       </c>
       <c r="M58" s="3" t="s">
@@ -5198,10 +5195,10 @@
         <v>35</v>
       </c>
       <c r="P58" s="44"/>
-      <c r="Q58" s="57">
-        <v>45540</v>
-      </c>
-      <c r="R58" s="62" t="s">
+      <c r="Q58" s="51">
+        <v>45547</v>
+      </c>
+      <c r="R58" s="61" t="s">
         <v>35</v>
       </c>
       <c r="S58" s="5" t="s">
@@ -5214,37 +5211,37 @@
         <v>35</v>
       </c>
       <c r="V58" s="44"/>
-      <c r="W58" s="57">
-        <v>45540</v>
-      </c>
-      <c r="X58" s="63"/>
+      <c r="W58" s="51">
+        <v>45547</v>
+      </c>
+      <c r="X58" s="62"/>
     </row>
     <row r="59" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="67" t="s">
+      <c r="B59" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="66" t="s">
+      <c r="C59" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D59" s="66" t="s">
+      <c r="D59" s="67" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="58" t="s">
+      <c r="F59" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="G59" s="58" t="s">
+      <c r="G59" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="H59" s="58" t="s">
+      <c r="H59" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="I59" s="59" t="s">
+      <c r="I59" s="58" t="s">
         <v>116</v>
       </c>
       <c r="J59" s="45"/>
@@ -5283,19 +5280,19 @@
       <c r="W59" s="56">
         <v>45541</v>
       </c>
-      <c r="X59" s="63"/>
+      <c r="X59" s="62"/>
     </row>
     <row r="60" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="65" t="s">
+      <c r="A60" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="64" t="s">
+      <c r="C60" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D60" s="64" t="s">
+      <c r="D60" s="63" t="s">
         <v>10</v>
       </c>
       <c r="E60" s="24" t="s">
@@ -5315,7 +5312,7 @@
       </c>
       <c r="J60" s="44"/>
       <c r="K60" s="51">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="L60" s="3" t="s">
         <v>70</v>
@@ -5331,7 +5328,7 @@
       </c>
       <c r="P60" s="44"/>
       <c r="Q60" s="51">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="R60" s="5" t="s">
         <v>70</v>
@@ -5347,21 +5344,21 @@
       </c>
       <c r="V60" s="44"/>
       <c r="W60" s="51">
-        <v>45541</v>
-      </c>
-      <c r="X60" s="63"/>
+        <v>45548</v>
+      </c>
+      <c r="X60" s="62"/>
     </row>
     <row r="61" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B61" s="65" t="s">
+      <c r="A61" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="64" t="s">
+      <c r="C61" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="64" t="s">
+      <c r="D61" s="63" t="s">
         <v>14</v>
       </c>
       <c r="E61" s="24" t="s">
@@ -5415,19 +5412,19 @@
       <c r="W61" s="51">
         <v>45541</v>
       </c>
-      <c r="X61" s="63"/>
+      <c r="X61" s="62"/>
     </row>
     <row r="62" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" s="65" t="s">
+      <c r="A62" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="64" t="s">
+      <c r="C62" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="64" t="s">
+      <c r="D62" s="63" t="s">
         <v>14</v>
       </c>
       <c r="E62" s="24" t="s">
@@ -5447,7 +5444,7 @@
       </c>
       <c r="J62" s="44"/>
       <c r="K62" s="51">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>70</v>
@@ -5463,7 +5460,7 @@
       </c>
       <c r="P62" s="44"/>
       <c r="Q62" s="51">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="R62" s="5" t="s">
         <v>70</v>
@@ -5479,21 +5476,21 @@
       </c>
       <c r="V62" s="44"/>
       <c r="W62" s="51">
-        <v>45541</v>
-      </c>
-      <c r="X62" s="63"/>
+        <v>45548</v>
+      </c>
+      <c r="X62" s="62"/>
     </row>
     <row r="63" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="65" t="s">
+      <c r="A63" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B63" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="64" t="s">
+      <c r="C63" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="64" t="s">
+      <c r="D63" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E63" s="24" t="s">
@@ -5547,19 +5544,19 @@
       <c r="W63" s="51">
         <v>45541</v>
       </c>
-      <c r="X63" s="63"/>
+      <c r="X63" s="62"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A64" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B64" s="65" t="s">
+      <c r="A64" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B64" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C64" s="64" t="s">
+      <c r="C64" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="64" t="s">
+      <c r="D64" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E64" s="24" t="s">
@@ -5579,7 +5576,7 @@
       </c>
       <c r="J64" s="44"/>
       <c r="K64" s="51">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="L64" s="3" t="s">
         <v>70</v>
@@ -5595,7 +5592,7 @@
       </c>
       <c r="P64" s="44"/>
       <c r="Q64" s="51">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="R64" s="5" t="s">
         <v>70</v>
@@ -5611,21 +5608,21 @@
       </c>
       <c r="V64" s="44"/>
       <c r="W64" s="51">
-        <v>45541</v>
-      </c>
-      <c r="X64" s="63"/>
+        <v>45548</v>
+      </c>
+      <c r="X64" s="62"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A65" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B65" s="65" t="s">
+      <c r="A65" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B65" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C65" s="64" t="s">
+      <c r="C65" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="64" t="s">
+      <c r="D65" s="63" t="s">
         <v>18</v>
       </c>
       <c r="E65" s="24" t="s">
@@ -5677,19 +5674,19 @@
       <c r="W65" s="51">
         <v>45541</v>
       </c>
-      <c r="X65" s="63"/>
+      <c r="X65" s="62"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A66" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B66" s="65" t="s">
+      <c r="A66" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B66" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C66" s="64" t="s">
+      <c r="C66" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="64" t="s">
+      <c r="D66" s="63" t="s">
         <v>18</v>
       </c>
       <c r="E66" s="24" t="s">
@@ -5709,7 +5706,7 @@
       </c>
       <c r="J66" s="44"/>
       <c r="K66" s="51">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="L66" s="3" t="s">
         <v>35</v>
@@ -5723,7 +5720,7 @@
       <c r="O66" s="40"/>
       <c r="P66" s="44"/>
       <c r="Q66" s="51">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="R66" s="5" t="s">
         <v>35</v>
@@ -5739,21 +5736,21 @@
       </c>
       <c r="V66" s="44"/>
       <c r="W66" s="51">
-        <v>45541</v>
-      </c>
-      <c r="X66" s="63"/>
+        <v>45548</v>
+      </c>
+      <c r="X66" s="62"/>
     </row>
     <row r="67" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A67" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" s="65" t="s">
+      <c r="A67" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C67" s="64" t="s">
+      <c r="C67" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="64" t="s">
+      <c r="D67" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E67" s="24" t="s">
@@ -5807,19 +5804,19 @@
       <c r="W67" s="51">
         <v>45541</v>
       </c>
-      <c r="X67" s="63"/>
+      <c r="X67" s="62"/>
     </row>
     <row r="68" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A68" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" s="65" t="s">
+      <c r="A68" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="64" t="s">
+      <c r="C68" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="64" t="s">
+      <c r="D68" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E68" s="24" t="s">
@@ -5839,7 +5836,7 @@
       </c>
       <c r="J68" s="44"/>
       <c r="K68" s="51">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="L68" s="3" t="s">
         <v>35</v>
@@ -5855,7 +5852,7 @@
       </c>
       <c r="P68" s="44"/>
       <c r="Q68" s="51">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="R68" s="5" t="s">
         <v>35</v>
@@ -5871,21 +5868,21 @@
       </c>
       <c r="V68" s="44"/>
       <c r="W68" s="51">
-        <v>45541</v>
-      </c>
-      <c r="X68" s="63"/>
+        <v>45548</v>
+      </c>
+      <c r="X68" s="62"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A69" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B69" s="65" t="s">
+      <c r="A69" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B69" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="64" t="s">
+      <c r="C69" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="64" t="s">
+      <c r="D69" s="63" t="s">
         <v>22</v>
       </c>
       <c r="E69" s="24" t="s">
@@ -5939,19 +5936,19 @@
       <c r="W69" s="51">
         <v>45541</v>
       </c>
-      <c r="X69" s="63"/>
+      <c r="X69" s="62"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A70" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" s="65" t="s">
+      <c r="A70" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C70" s="64" t="s">
+      <c r="C70" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="64" t="s">
+      <c r="D70" s="63" t="s">
         <v>22</v>
       </c>
       <c r="E70" s="24" t="s">
@@ -5971,7 +5968,7 @@
       </c>
       <c r="J70" s="44"/>
       <c r="K70" s="51">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="L70" s="3" t="s">
         <v>35</v>
@@ -5987,7 +5984,7 @@
       </c>
       <c r="P70" s="44"/>
       <c r="Q70" s="51">
-        <v>45541</v>
+        <v>45548</v>
       </c>
       <c r="R70" s="5" t="s">
         <v>35</v>
@@ -6003,21 +6000,21 @@
       </c>
       <c r="V70" s="44"/>
       <c r="W70" s="51">
-        <v>45541</v>
-      </c>
-      <c r="X70" s="63"/>
+        <v>45548</v>
+      </c>
+      <c r="X70" s="62"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A71" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" s="65" t="s">
+      <c r="A71" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B71" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C71" s="64" t="s">
+      <c r="C71" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="64" t="s">
+      <c r="D71" s="63" t="s">
         <v>24</v>
       </c>
       <c r="E71" s="24" t="s">
@@ -6071,25 +6068,25 @@
       <c r="W71" s="51">
         <v>45541</v>
       </c>
-      <c r="X71" s="63"/>
+      <c r="X71" s="62"/>
     </row>
     <row r="72" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" s="65" t="s">
+      <c r="A72" s="76" t="s">
+        <v>35</v>
+      </c>
+      <c r="B72" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C72" s="64" t="s">
+      <c r="C72" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="64" t="s">
+      <c r="D72" s="63" t="s">
         <v>24</v>
       </c>
       <c r="E72" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="62" t="s">
+      <c r="F72" s="61" t="s">
         <v>35</v>
       </c>
       <c r="G72" s="1" t="s">
@@ -6102,10 +6099,10 @@
         <v>35</v>
       </c>
       <c r="J72" s="44"/>
-      <c r="K72" s="57">
-        <v>45541</v>
-      </c>
-      <c r="L72" s="62" t="s">
+      <c r="K72" s="51">
+        <v>45548</v>
+      </c>
+      <c r="L72" s="61" t="s">
         <v>35</v>
       </c>
       <c r="M72" s="3" t="s">
@@ -6118,10 +6115,10 @@
         <v>35</v>
       </c>
       <c r="P72" s="44"/>
-      <c r="Q72" s="57">
-        <v>45541</v>
-      </c>
-      <c r="R72" s="62" t="s">
+      <c r="Q72" s="51">
+        <v>45548</v>
+      </c>
+      <c r="R72" s="61" t="s">
         <v>35</v>
       </c>
       <c r="S72" s="5" t="s">
@@ -6134,22 +6131,22 @@
         <v>35</v>
       </c>
       <c r="V72" s="44"/>
-      <c r="W72" s="57">
-        <v>45541</v>
-      </c>
-      <c r="X72" s="63"/>
+      <c r="W72" s="51">
+        <v>45548</v>
+      </c>
+      <c r="X72" s="62"/>
     </row>
     <row r="73" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A73" s="76" t="s">
+      <c r="A73" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="B73" s="67" t="s">
+      <c r="B73" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="66" t="s">
+      <c r="C73" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="D73" s="66" t="s">
+      <c r="D73" s="67" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="25" t="s">
@@ -6203,19 +6200,19 @@
       <c r="W73" s="56">
         <v>45542</v>
       </c>
-      <c r="X73" s="63"/>
+      <c r="X73" s="62"/>
     </row>
     <row r="74" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A74" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74" s="65" t="s">
+      <c r="A74" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C74" s="64" t="s">
+      <c r="C74" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="D74" s="64" t="s">
+      <c r="D74" s="63" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="24" t="s">
@@ -6235,7 +6232,7 @@
       </c>
       <c r="J74" s="44"/>
       <c r="K74" s="51">
-        <v>45542</v>
+        <v>45549</v>
       </c>
       <c r="L74" s="3" t="s">
         <v>102</v>
@@ -6251,7 +6248,7 @@
       </c>
       <c r="P74" s="44"/>
       <c r="Q74" s="51">
-        <v>45542</v>
+        <v>45549</v>
       </c>
       <c r="R74" s="5" t="s">
         <v>98</v>
@@ -6267,21 +6264,21 @@
       </c>
       <c r="V74" s="44"/>
       <c r="W74" s="51">
-        <v>45542</v>
-      </c>
-      <c r="X74" s="63"/>
+        <v>45549</v>
+      </c>
+      <c r="X74" s="62"/>
     </row>
     <row r="75" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A75" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B75" s="65" t="s">
+      <c r="A75" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C75" s="64" t="s">
+      <c r="C75" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="64" t="s">
+      <c r="D75" s="63" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="24" t="s">
@@ -6335,19 +6332,19 @@
       <c r="W75" s="51">
         <v>45542</v>
       </c>
-      <c r="X75" s="63"/>
+      <c r="X75" s="62"/>
     </row>
     <row r="76" spans="1:24" ht="25" x14ac:dyDescent="0.35">
-      <c r="A76" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B76" s="65" t="s">
+      <c r="A76" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="64" t="s">
+      <c r="C76" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="64" t="s">
+      <c r="D76" s="63" t="s">
         <v>14</v>
       </c>
       <c r="E76" s="24" t="s">
@@ -6367,7 +6364,7 @@
       </c>
       <c r="J76" s="44"/>
       <c r="K76" s="51">
-        <v>45542</v>
+        <v>45549</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>72</v>
@@ -6383,7 +6380,7 @@
       </c>
       <c r="P76" s="44"/>
       <c r="Q76" s="51">
-        <v>45542</v>
+        <v>45549</v>
       </c>
       <c r="R76" s="5" t="s">
         <v>102</v>
@@ -6399,21 +6396,21 @@
       </c>
       <c r="V76" s="44"/>
       <c r="W76" s="51">
-        <v>45542</v>
-      </c>
-      <c r="X76" s="63"/>
+        <v>45549</v>
+      </c>
+      <c r="X76" s="62"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A77" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77" s="65" t="s">
+      <c r="A77" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C77" s="64" t="s">
+      <c r="C77" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="64" t="s">
+      <c r="D77" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E77" s="24" t="s">
@@ -6467,19 +6464,19 @@
       <c r="W77" s="51">
         <v>45542</v>
       </c>
-      <c r="X77" s="63"/>
+      <c r="X77" s="62"/>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A78" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78" s="65" t="s">
+      <c r="A78" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="C78" s="64" t="s">
+      <c r="C78" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="64" t="s">
+      <c r="D78" s="63" t="s">
         <v>16</v>
       </c>
       <c r="E78" s="24" t="s">
@@ -6499,7 +6496,7 @@
       </c>
       <c r="J78" s="44"/>
       <c r="K78" s="51">
-        <v>45542</v>
+        <v>45549</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>35</v>
@@ -6515,7 +6512,7 @@
       </c>
       <c r="P78" s="44"/>
       <c r="Q78" s="51">
-        <v>45542</v>
+        <v>45549</v>
       </c>
       <c r="R78" s="5" t="s">
         <v>72</v>
@@ -6531,21 +6528,21 @@
       </c>
       <c r="V78" s="44"/>
       <c r="W78" s="51">
-        <v>45542</v>
-      </c>
-      <c r="X78" s="63"/>
+        <v>45549</v>
+      </c>
+      <c r="X78" s="62"/>
     </row>
     <row r="79" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A79" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" s="65" t="s">
+      <c r="A79" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C79" s="64" t="s">
+      <c r="C79" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="64" t="s">
+      <c r="D79" s="63" t="s">
         <v>18</v>
       </c>
       <c r="E79" s="24" t="s">
@@ -6599,19 +6596,19 @@
       <c r="W79" s="51">
         <v>45542</v>
       </c>
-      <c r="X79" s="63"/>
+      <c r="X79" s="62"/>
     </row>
     <row r="80" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A80" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B80" s="65" t="s">
+      <c r="A80" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B80" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C80" s="64" t="s">
+      <c r="C80" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="64" t="s">
+      <c r="D80" s="63" t="s">
         <v>18</v>
       </c>
       <c r="E80" s="24" t="s">
@@ -6631,7 +6628,7 @@
       </c>
       <c r="J80" s="44"/>
       <c r="K80" s="51">
-        <v>45542</v>
+        <v>45549</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>35</v>
@@ -6647,7 +6644,7 @@
       </c>
       <c r="P80" s="44"/>
       <c r="Q80" s="51">
-        <v>45542</v>
+        <v>45549</v>
       </c>
       <c r="R80" s="5" t="s">
         <v>35</v>
@@ -6663,21 +6660,21 @@
       </c>
       <c r="V80" s="44"/>
       <c r="W80" s="51">
-        <v>45542</v>
-      </c>
-      <c r="X80" s="63"/>
+        <v>45549</v>
+      </c>
+      <c r="X80" s="62"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A81" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" s="65" t="s">
+      <c r="A81" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B81" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C81" s="64" t="s">
+      <c r="C81" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="64" t="s">
+      <c r="D81" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E81" s="24" t="s">
@@ -6731,19 +6728,19 @@
       <c r="W81" s="51">
         <v>45542</v>
       </c>
-      <c r="X81" s="63"/>
+      <c r="X81" s="62"/>
     </row>
     <row r="82" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A82" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B82" s="65" t="s">
+      <c r="A82" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B82" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="64" t="s">
+      <c r="C82" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="64" t="s">
+      <c r="D82" s="63" t="s">
         <v>20</v>
       </c>
       <c r="E82" s="24" t="s">
@@ -6763,7 +6760,7 @@
       </c>
       <c r="J82" s="44"/>
       <c r="K82" s="51">
-        <v>45542</v>
+        <v>45549</v>
       </c>
       <c r="L82" s="3" t="s">
         <v>35</v>
@@ -6779,7 +6776,7 @@
       </c>
       <c r="P82" s="44"/>
       <c r="Q82" s="51">
-        <v>45542</v>
+        <v>45549</v>
       </c>
       <c r="R82" s="5" t="s">
         <v>35</v>
@@ -6795,21 +6792,21 @@
       </c>
       <c r="V82" s="44"/>
       <c r="W82" s="51">
-        <v>45542</v>
-      </c>
-      <c r="X82" s="63"/>
+        <v>45549</v>
+      </c>
+      <c r="X82" s="62"/>
     </row>
     <row r="83" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A83" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B83" s="65" t="s">
+      <c r="A83" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B83" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C83" s="64" t="s">
+      <c r="C83" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="64" t="s">
+      <c r="D83" s="63" t="s">
         <v>22</v>
       </c>
       <c r="E83" s="24" t="s">
@@ -6863,19 +6860,19 @@
       <c r="W83" s="51">
         <v>45542</v>
       </c>
-      <c r="X83" s="63"/>
+      <c r="X83" s="62"/>
     </row>
     <row r="84" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A84" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B84" s="65" t="s">
+      <c r="A84" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C84" s="64" t="s">
+      <c r="C84" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="64" t="s">
+      <c r="D84" s="63" t="s">
         <v>22</v>
       </c>
       <c r="E84" s="24" t="s">
@@ -6895,7 +6892,7 @@
       </c>
       <c r="J84" s="44"/>
       <c r="K84" s="51">
-        <v>45542</v>
+        <v>45549</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>35</v>
@@ -6911,7 +6908,7 @@
       </c>
       <c r="P84" s="44"/>
       <c r="Q84" s="51">
-        <v>45542</v>
+        <v>45549</v>
       </c>
       <c r="R84" s="5" t="s">
         <v>35</v>
@@ -6927,21 +6924,21 @@
       </c>
       <c r="V84" s="44"/>
       <c r="W84" s="51">
-        <v>45542</v>
-      </c>
-      <c r="X84" s="63"/>
+        <v>45549</v>
+      </c>
+      <c r="X84" s="62"/>
     </row>
     <row r="85" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A85" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="B85" s="65" t="s">
+      <c r="A85" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="B85" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C85" s="64" t="s">
+      <c r="C85" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D85" s="64" t="s">
+      <c r="D85" s="63" t="s">
         <v>24</v>
       </c>
       <c r="E85" s="24" t="s">
@@ -6995,19 +6992,19 @@
       <c r="W85" s="51">
         <v>45542</v>
       </c>
-      <c r="X85" s="63"/>
+      <c r="X85" s="62"/>
     </row>
     <row r="86" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A86" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B86" s="80" t="s">
+      <c r="A86" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="C86" s="79" t="s">
+      <c r="C86" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="79" t="s">
+      <c r="D86" s="65" t="s">
         <v>24</v>
       </c>
       <c r="E86" s="26" t="s">
@@ -7027,7 +7024,7 @@
       </c>
       <c r="J86" s="46"/>
       <c r="K86" s="51">
-        <v>45542</v>
+        <v>45549</v>
       </c>
       <c r="L86" s="8" t="s">
         <v>35</v>
@@ -7043,7 +7040,7 @@
       </c>
       <c r="P86" s="46"/>
       <c r="Q86" s="51">
-        <v>45542</v>
+        <v>45549</v>
       </c>
       <c r="R86" s="8" t="s">
         <v>35</v>
@@ -7061,9 +7058,9 @@
         <v>35</v>
       </c>
       <c r="W86" s="51">
-        <v>45542</v>
-      </c>
-      <c r="X86" s="63"/>
+        <v>45549</v>
+      </c>
+      <c r="X86" s="62"/>
     </row>
     <row r="87" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A87" s="19"/>
@@ -7449,15 +7446,107 @@
     </row>
   </sheetData>
   <mergeCells count="134">
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="A17:A30"/>
+    <mergeCell ref="A31:A44"/>
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="A73:A86"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="B57:B58"/>
     <mergeCell ref="C85:C86"/>
     <mergeCell ref="D85:D86"/>
     <mergeCell ref="B85:B86"/>
@@ -7482,107 +7571,15 @@
     <mergeCell ref="B75:B76"/>
     <mergeCell ref="D77:D78"/>
     <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="A17:A30"/>
-    <mergeCell ref="A31:A44"/>
-    <mergeCell ref="A45:A58"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="A73:A86"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="B83:B84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
